--- a/SYQ7E2_0316/SYQ7E2_feladat.xlsx
+++ b/SYQ7E2_0316/SYQ7E2_feladat.xlsx
@@ -117,13 +117,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,28 +427,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -460,16 +445,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -479,6 +458,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BR68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,63 +802,63 @@
       <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="31">
+      <c r="J3" s="16"/>
+      <c r="K3" s="24">
         <v>5</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31">
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24">
         <v>10</v>
       </c>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31">
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24">
         <v>15</v>
       </c>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31">
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24">
         <v>20</v>
       </c>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31">
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24">
         <v>25</v>
       </c>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31">
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24">
         <v>30</v>
       </c>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31">
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24">
         <v>35</v>
       </c>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="31">
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24">
         <v>40</v>
       </c>
-      <c r="AU3" s="31"/>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="32"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="24"/>
+      <c r="AX3" s="25"/>
     </row>
     <row r="4" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -879,12 +879,12 @@
       <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -942,20 +942,20 @@
       <c r="G5" s="8">
         <v>2</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="17" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
@@ -1005,22 +1005,22 @@
       <c r="G6" s="8">
         <v>8</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
@@ -1068,7 +1068,7 @@
       <c r="G7" s="8">
         <v>4</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="7"/>
@@ -1080,30 +1080,30 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="19"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="27"/>
       <c r="AR7" s="7"/>
       <c r="AS7" s="7"/>
       <c r="AT7" s="7"/>
@@ -1131,7 +1131,7 @@
       <c r="G8" s="8">
         <v>21</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="18" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="10"/>
@@ -1146,32 +1146,32 @@
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="22"/>
-      <c r="AN8" s="22"/>
-      <c r="AO8" s="22"/>
-      <c r="AP8" s="22"/>
-      <c r="AQ8" s="22"/>
-      <c r="AR8" s="23"/>
-      <c r="AS8" s="23"/>
-      <c r="AT8" s="23"/>
-      <c r="AU8" s="23"/>
-      <c r="AV8" s="23"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="33"/>
+      <c r="AQ8" s="33"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="28"/>
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
       <c r="AW8" s="10"/>
       <c r="AX8" s="11"/>
     </row>
@@ -1211,55 +1211,55 @@
       <c r="H11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="31">
+      <c r="J11" s="16"/>
+      <c r="K11" s="24">
         <v>5</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24">
         <v>10</v>
       </c>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31">
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24">
         <v>15</v>
       </c>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31">
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24">
         <v>20</v>
       </c>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="33"/>
-      <c r="AR11" s="33"/>
-      <c r="AS11" s="33"/>
-      <c r="AT11" s="33"/>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="33"/>
-      <c r="AW11" s="33"/>
-      <c r="AX11" s="33"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="26"/>
+      <c r="AU11" s="26"/>
+      <c r="AV11" s="26"/>
+      <c r="AW11" s="26"/>
+      <c r="AX11" s="26"/>
     </row>
     <row r="12" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
@@ -1281,48 +1281,48 @@
         <v>0</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="24"/>
-      <c r="AP12" s="24"/>
-      <c r="AQ12" s="24"/>
-      <c r="AR12" s="24"/>
-      <c r="AS12" s="24"/>
-      <c r="AT12" s="24"/>
-      <c r="AU12" s="24"/>
-      <c r="AV12" s="24"/>
-      <c r="AW12" s="24"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
       <c r="AX12" s="7"/>
     </row>
     <row r="13" spans="2:50" x14ac:dyDescent="0.25">
@@ -1345,48 +1345,48 @@
         <v>4</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="17" t="s">
         <v>1</v>
       </c>
       <c r="K13" s="7"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="24"/>
-      <c r="AV13" s="24"/>
-      <c r="AW13" s="24"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="19"/>
       <c r="AX13" s="7"/>
     </row>
     <row r="14" spans="2:50" x14ac:dyDescent="0.25">
@@ -1411,48 +1411,48 @@
       <c r="H14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="17" t="s">
         <v>2</v>
       </c>
       <c r="K14" s="7"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="24"/>
-      <c r="AK14" s="24"/>
-      <c r="AL14" s="24"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="24"/>
-      <c r="AO14" s="24"/>
-      <c r="AP14" s="24"/>
-      <c r="AQ14" s="24"/>
-      <c r="AR14" s="24"/>
-      <c r="AS14" s="24"/>
-      <c r="AT14" s="24"/>
-      <c r="AU14" s="24"/>
-      <c r="AV14" s="24"/>
-      <c r="AW14" s="24"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="19"/>
       <c r="AX14" s="7"/>
     </row>
     <row r="15" spans="2:50" x14ac:dyDescent="0.25">
@@ -1475,48 +1475,48 @@
         <v>1</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="17" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="7"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="24"/>
-      <c r="AK15" s="24"/>
-      <c r="AL15" s="24"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="24"/>
-      <c r="AO15" s="24"/>
-      <c r="AP15" s="24"/>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="24"/>
-      <c r="AS15" s="24"/>
-      <c r="AT15" s="24"/>
-      <c r="AU15" s="24"/>
-      <c r="AV15" s="24"/>
-      <c r="AW15" s="24"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="19"/>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="19"/>
       <c r="AX15" s="7"/>
     </row>
     <row r="16" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1539,48 +1539,48 @@
         <v>3</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="18" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="10"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="24"/>
-      <c r="AM16" s="24"/>
-      <c r="AN16" s="24"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="24"/>
-      <c r="AQ16" s="24"/>
-      <c r="AR16" s="24"/>
-      <c r="AS16" s="24"/>
-      <c r="AT16" s="24"/>
-      <c r="AU16" s="24"/>
-      <c r="AV16" s="24"/>
-      <c r="AW16" s="24"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
       <c r="AX16" s="7"/>
     </row>
     <row r="17" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1620,63 +1620,63 @@
       <c r="H19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="31">
+      <c r="J19" s="16"/>
+      <c r="K19" s="24">
         <v>5</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31">
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24">
         <v>10</v>
       </c>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31">
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24">
         <v>15</v>
       </c>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31">
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24">
         <v>20</v>
       </c>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31">
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24">
         <v>25</v>
       </c>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31">
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24">
         <v>30</v>
       </c>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="31">
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="24"/>
+      <c r="AO19" s="24">
         <v>35</v>
       </c>
-      <c r="AP19" s="31"/>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="31"/>
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="31">
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="24"/>
+      <c r="AT19" s="24">
         <v>40</v>
       </c>
-      <c r="AU19" s="31"/>
-      <c r="AV19" s="31"/>
-      <c r="AW19" s="31"/>
-      <c r="AX19" s="32"/>
+      <c r="AU19" s="24"/>
+      <c r="AV19" s="24"/>
+      <c r="AW19" s="24"/>
+      <c r="AX19" s="25"/>
     </row>
     <row r="20" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
@@ -1700,48 +1700,48 @@
       <c r="H20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="24"/>
-      <c r="AK20" s="24"/>
-      <c r="AL20" s="24"/>
-      <c r="AM20" s="24"/>
-      <c r="AN20" s="24"/>
-      <c r="AO20" s="24"/>
-      <c r="AP20" s="24"/>
-      <c r="AQ20" s="24"/>
-      <c r="AR20" s="24"/>
-      <c r="AS20" s="24"/>
-      <c r="AT20" s="24"/>
-      <c r="AU20" s="24"/>
-      <c r="AV20" s="24"/>
-      <c r="AW20" s="24"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
       <c r="AX20" s="8"/>
     </row>
     <row r="21" spans="2:50" x14ac:dyDescent="0.25">
@@ -1766,48 +1766,48 @@
       <c r="H21" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K21" s="24"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="24"/>
-      <c r="AL21" s="24"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="24"/>
-      <c r="AO21" s="24"/>
-      <c r="AP21" s="24"/>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="24"/>
-      <c r="AS21" s="24"/>
-      <c r="AT21" s="24"/>
-      <c r="AU21" s="24"/>
-      <c r="AV21" s="24"/>
-      <c r="AW21" s="24"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="19"/>
+      <c r="AU21" s="19"/>
+      <c r="AV21" s="19"/>
+      <c r="AW21" s="19"/>
       <c r="AX21" s="8"/>
     </row>
     <row r="22" spans="2:50" x14ac:dyDescent="0.25">
@@ -1826,48 +1826,48 @@
       <c r="H22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="24"/>
-      <c r="AK22" s="24"/>
-      <c r="AL22" s="24"/>
-      <c r="AM22" s="24"/>
-      <c r="AN22" s="24"/>
-      <c r="AO22" s="24"/>
-      <c r="AP22" s="24"/>
-      <c r="AQ22" s="24"/>
-      <c r="AR22" s="24"/>
-      <c r="AS22" s="24"/>
-      <c r="AT22" s="24"/>
-      <c r="AU22" s="24"/>
-      <c r="AV22" s="24"/>
-      <c r="AW22" s="24"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
       <c r="AX22" s="8"/>
     </row>
     <row r="23" spans="2:50" x14ac:dyDescent="0.25">
@@ -1892,48 +1892,48 @@
       <c r="H23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="19"/>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="19"/>
-      <c r="AN23" s="19"/>
-      <c r="AO23" s="19"/>
-      <c r="AP23" s="19"/>
-      <c r="AQ23" s="19"/>
-      <c r="AR23" s="19"/>
-      <c r="AS23" s="19"/>
-      <c r="AT23" s="19"/>
-      <c r="AU23" s="19"/>
-      <c r="AV23" s="19"/>
-      <c r="AW23" s="24"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="27"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="27"/>
+      <c r="AT23" s="27"/>
+      <c r="AU23" s="27"/>
+      <c r="AV23" s="27"/>
+      <c r="AW23" s="19"/>
       <c r="AX23" s="8"/>
     </row>
     <row r="24" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1958,48 +1958,48 @@
       <c r="H24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="25"/>
-      <c r="AQ24" s="25"/>
-      <c r="AR24" s="25"/>
-      <c r="AS24" s="25"/>
-      <c r="AT24" s="25"/>
-      <c r="AU24" s="25"/>
-      <c r="AV24" s="25"/>
-      <c r="AW24" s="25"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
+      <c r="AU24" s="20"/>
+      <c r="AV24" s="20"/>
+      <c r="AW24" s="20"/>
       <c r="AX24" s="11"/>
     </row>
     <row r="25" spans="2:50" x14ac:dyDescent="0.25">
@@ -2200,91 +2200,91 @@
       <c r="H38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="31">
+      <c r="J38" s="16"/>
+      <c r="K38" s="24">
         <v>5</v>
       </c>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31">
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24">
         <v>10</v>
       </c>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31">
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24">
         <v>15</v>
       </c>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31">
+      <c r="V38" s="24"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24">
         <v>20</v>
       </c>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31">
+      <c r="AA38" s="24"/>
+      <c r="AB38" s="24"/>
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="24">
         <v>25</v>
       </c>
-      <c r="AF38" s="31"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31">
+      <c r="AF38" s="24"/>
+      <c r="AG38" s="24"/>
+      <c r="AH38" s="24"/>
+      <c r="AI38" s="24"/>
+      <c r="AJ38" s="24">
         <v>30</v>
       </c>
-      <c r="AK38" s="31"/>
-      <c r="AL38" s="31"/>
-      <c r="AM38" s="31"/>
-      <c r="AN38" s="31"/>
-      <c r="AO38" s="31">
+      <c r="AK38" s="24"/>
+      <c r="AL38" s="24"/>
+      <c r="AM38" s="24"/>
+      <c r="AN38" s="24"/>
+      <c r="AO38" s="24">
         <v>35</v>
       </c>
-      <c r="AP38" s="31"/>
-      <c r="AQ38" s="31"/>
-      <c r="AR38" s="31"/>
-      <c r="AS38" s="31"/>
-      <c r="AT38" s="31">
+      <c r="AP38" s="24"/>
+      <c r="AQ38" s="24"/>
+      <c r="AR38" s="24"/>
+      <c r="AS38" s="24"/>
+      <c r="AT38" s="24">
         <v>40</v>
       </c>
-      <c r="AU38" s="31"/>
-      <c r="AV38" s="31"/>
-      <c r="AW38" s="31"/>
-      <c r="AX38" s="31"/>
-      <c r="AY38" s="31">
+      <c r="AU38" s="24"/>
+      <c r="AV38" s="24"/>
+      <c r="AW38" s="24"/>
+      <c r="AX38" s="24"/>
+      <c r="AY38" s="24">
         <v>45</v>
       </c>
-      <c r="AZ38" s="31"/>
-      <c r="BA38" s="31"/>
-      <c r="BB38" s="31"/>
-      <c r="BC38" s="31"/>
-      <c r="BD38" s="31">
+      <c r="AZ38" s="24"/>
+      <c r="BA38" s="24"/>
+      <c r="BB38" s="24"/>
+      <c r="BC38" s="24"/>
+      <c r="BD38" s="24">
         <v>50</v>
       </c>
-      <c r="BE38" s="31"/>
-      <c r="BF38" s="31"/>
-      <c r="BG38" s="31"/>
-      <c r="BH38" s="31"/>
-      <c r="BI38" s="31">
+      <c r="BE38" s="24"/>
+      <c r="BF38" s="24"/>
+      <c r="BG38" s="24"/>
+      <c r="BH38" s="24"/>
+      <c r="BI38" s="24">
         <v>55</v>
       </c>
-      <c r="BJ38" s="31"/>
-      <c r="BK38" s="31"/>
-      <c r="BL38" s="31"/>
-      <c r="BM38" s="31"/>
-      <c r="BN38" s="31">
+      <c r="BJ38" s="24"/>
+      <c r="BK38" s="24"/>
+      <c r="BL38" s="24"/>
+      <c r="BM38" s="24"/>
+      <c r="BN38" s="24">
         <v>60</v>
       </c>
-      <c r="BO38" s="31"/>
-      <c r="BP38" s="31"/>
-      <c r="BQ38" s="31"/>
-      <c r="BR38" s="32"/>
+      <c r="BO38" s="24"/>
+      <c r="BP38" s="24"/>
+      <c r="BQ38" s="24"/>
+      <c r="BR38" s="25"/>
     </row>
     <row r="39" spans="2:70" x14ac:dyDescent="0.25">
       <c r="C39" s="6" t="s">
@@ -2305,48 +2305,48 @@
       <c r="H39" s="8">
         <v>0</v>
       </c>
-      <c r="J39" s="18" t="s">
+      <c r="J39" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
-      <c r="AL39" s="24"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
-      <c r="AQ39" s="24"/>
-      <c r="AR39" s="24"/>
-      <c r="AS39" s="24"/>
-      <c r="AT39" s="24"/>
-      <c r="AU39" s="24"/>
-      <c r="AV39" s="24"/>
-      <c r="AW39" s="24"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="19"/>
+      <c r="AJ39" s="19"/>
+      <c r="AK39" s="19"/>
+      <c r="AL39" s="19"/>
+      <c r="AM39" s="19"/>
+      <c r="AN39" s="19"/>
+      <c r="AO39" s="19"/>
+      <c r="AP39" s="19"/>
+      <c r="AQ39" s="19"/>
+      <c r="AR39" s="19"/>
+      <c r="AS39" s="19"/>
+      <c r="AT39" s="19"/>
+      <c r="AU39" s="19"/>
+      <c r="AV39" s="19"/>
+      <c r="AW39" s="19"/>
       <c r="AX39" s="7"/>
       <c r="AY39" s="7"/>
       <c r="AZ39" s="7"/>
@@ -2388,48 +2388,48 @@
       <c r="H40" s="8">
         <v>7</v>
       </c>
-      <c r="J40" s="18" t="s">
+      <c r="J40" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="19"/>
-      <c r="AB40" s="19"/>
-      <c r="AC40" s="19"/>
-      <c r="AD40" s="19"/>
-      <c r="AE40" s="19"/>
-      <c r="AF40" s="19"/>
-      <c r="AG40" s="24"/>
-      <c r="AH40" s="24"/>
-      <c r="AI40" s="24"/>
-      <c r="AJ40" s="24"/>
-      <c r="AK40" s="24"/>
-      <c r="AL40" s="24"/>
-      <c r="AM40" s="24"/>
-      <c r="AN40" s="24"/>
-      <c r="AO40" s="24"/>
-      <c r="AP40" s="24"/>
-      <c r="AQ40" s="24"/>
-      <c r="AR40" s="24"/>
-      <c r="AS40" s="24"/>
-      <c r="AT40" s="24"/>
-      <c r="AU40" s="24"/>
-      <c r="AV40" s="24"/>
-      <c r="AW40" s="24"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
+      <c r="AF40" s="27"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="19"/>
+      <c r="AJ40" s="19"/>
+      <c r="AK40" s="19"/>
+      <c r="AL40" s="19"/>
+      <c r="AM40" s="19"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="19"/>
+      <c r="AP40" s="19"/>
+      <c r="AQ40" s="19"/>
+      <c r="AR40" s="19"/>
+      <c r="AS40" s="19"/>
+      <c r="AT40" s="19"/>
+      <c r="AU40" s="19"/>
+      <c r="AV40" s="19"/>
+      <c r="AW40" s="19"/>
       <c r="AX40" s="7"/>
       <c r="AY40" s="7"/>
       <c r="AZ40" s="7"/>
@@ -2471,67 +2471,67 @@
       <c r="H41" s="8">
         <v>10</v>
       </c>
-      <c r="J41" s="18" t="s">
+      <c r="J41" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="24"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="20"/>
-      <c r="AF41" s="20"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="19"/>
-      <c r="AI41" s="19"/>
-      <c r="AJ41" s="19"/>
-      <c r="AK41" s="19"/>
-      <c r="AL41" s="19"/>
-      <c r="AM41" s="19"/>
-      <c r="AN41" s="19"/>
-      <c r="AO41" s="19"/>
-      <c r="AP41" s="19"/>
-      <c r="AQ41" s="19"/>
-      <c r="AR41" s="19"/>
-      <c r="AS41" s="19"/>
-      <c r="AT41" s="19"/>
-      <c r="AU41" s="19"/>
-      <c r="AV41" s="19"/>
-      <c r="AW41" s="19"/>
-      <c r="AX41" s="19"/>
-      <c r="AY41" s="19"/>
-      <c r="AZ41" s="19"/>
-      <c r="BA41" s="19"/>
-      <c r="BB41" s="19"/>
-      <c r="BC41" s="19"/>
-      <c r="BD41" s="19"/>
-      <c r="BE41" s="19"/>
-      <c r="BF41" s="19"/>
-      <c r="BG41" s="24"/>
-      <c r="BH41" s="24"/>
-      <c r="BI41" s="24"/>
-      <c r="BJ41" s="24"/>
-      <c r="BK41" s="24"/>
-      <c r="BL41" s="24"/>
-      <c r="BM41" s="24"/>
-      <c r="BN41" s="24"/>
-      <c r="BO41" s="24"/>
-      <c r="BP41" s="24"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="32"/>
+      <c r="AF41" s="32"/>
+      <c r="AG41" s="27"/>
+      <c r="AH41" s="27"/>
+      <c r="AI41" s="27"/>
+      <c r="AJ41" s="27"/>
+      <c r="AK41" s="27"/>
+      <c r="AL41" s="27"/>
+      <c r="AM41" s="27"/>
+      <c r="AN41" s="27"/>
+      <c r="AO41" s="27"/>
+      <c r="AP41" s="27"/>
+      <c r="AQ41" s="27"/>
+      <c r="AR41" s="27"/>
+      <c r="AS41" s="27"/>
+      <c r="AT41" s="27"/>
+      <c r="AU41" s="27"/>
+      <c r="AV41" s="27"/>
+      <c r="AW41" s="27"/>
+      <c r="AX41" s="27"/>
+      <c r="AY41" s="27"/>
+      <c r="AZ41" s="27"/>
+      <c r="BA41" s="27"/>
+      <c r="BB41" s="27"/>
+      <c r="BC41" s="27"/>
+      <c r="BD41" s="27"/>
+      <c r="BE41" s="27"/>
+      <c r="BF41" s="27"/>
+      <c r="BG41" s="19"/>
+      <c r="BH41" s="19"/>
+      <c r="BI41" s="19"/>
+      <c r="BJ41" s="19"/>
+      <c r="BK41" s="19"/>
+      <c r="BL41" s="19"/>
+      <c r="BM41" s="19"/>
+      <c r="BN41" s="19"/>
+      <c r="BO41" s="19"/>
+      <c r="BP41" s="19"/>
       <c r="BQ41" s="7"/>
       <c r="BR41" s="8"/>
     </row>
@@ -2554,67 +2554,67 @@
       <c r="H42" s="8">
         <v>28</v>
       </c>
-      <c r="J42" s="21" t="s">
+      <c r="J42" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="25"/>
-      <c r="AD42" s="25"/>
-      <c r="AE42" s="22"/>
-      <c r="AF42" s="22"/>
-      <c r="AG42" s="22"/>
-      <c r="AH42" s="22"/>
-      <c r="AI42" s="22"/>
-      <c r="AJ42" s="22"/>
-      <c r="AK42" s="22"/>
-      <c r="AL42" s="22"/>
-      <c r="AM42" s="22"/>
-      <c r="AN42" s="22"/>
-      <c r="AO42" s="22"/>
-      <c r="AP42" s="22"/>
-      <c r="AQ42" s="22"/>
-      <c r="AR42" s="22"/>
-      <c r="AS42" s="22"/>
-      <c r="AT42" s="22"/>
-      <c r="AU42" s="22"/>
-      <c r="AV42" s="22"/>
-      <c r="AW42" s="22"/>
-      <c r="AX42" s="22"/>
-      <c r="AY42" s="22"/>
-      <c r="AZ42" s="22"/>
-      <c r="BA42" s="22"/>
-      <c r="BB42" s="22"/>
-      <c r="BC42" s="22"/>
-      <c r="BD42" s="22"/>
-      <c r="BE42" s="22"/>
-      <c r="BF42" s="22"/>
-      <c r="BG42" s="23"/>
-      <c r="BH42" s="23"/>
-      <c r="BI42" s="23"/>
-      <c r="BJ42" s="23"/>
-      <c r="BK42" s="23"/>
-      <c r="BL42" s="23"/>
-      <c r="BM42" s="23"/>
-      <c r="BN42" s="23"/>
-      <c r="BO42" s="23"/>
-      <c r="BP42" s="23"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+      <c r="AE42" s="33"/>
+      <c r="AF42" s="33"/>
+      <c r="AG42" s="33"/>
+      <c r="AH42" s="33"/>
+      <c r="AI42" s="33"/>
+      <c r="AJ42" s="33"/>
+      <c r="AK42" s="33"/>
+      <c r="AL42" s="33"/>
+      <c r="AM42" s="33"/>
+      <c r="AN42" s="33"/>
+      <c r="AO42" s="33"/>
+      <c r="AP42" s="33"/>
+      <c r="AQ42" s="33"/>
+      <c r="AR42" s="33"/>
+      <c r="AS42" s="33"/>
+      <c r="AT42" s="33"/>
+      <c r="AU42" s="33"/>
+      <c r="AV42" s="33"/>
+      <c r="AW42" s="33"/>
+      <c r="AX42" s="33"/>
+      <c r="AY42" s="33"/>
+      <c r="AZ42" s="33"/>
+      <c r="BA42" s="33"/>
+      <c r="BB42" s="33"/>
+      <c r="BC42" s="33"/>
+      <c r="BD42" s="33"/>
+      <c r="BE42" s="33"/>
+      <c r="BF42" s="33"/>
+      <c r="BG42" s="28"/>
+      <c r="BH42" s="28"/>
+      <c r="BI42" s="28"/>
+      <c r="BJ42" s="28"/>
+      <c r="BK42" s="28"/>
+      <c r="BL42" s="28"/>
+      <c r="BM42" s="28"/>
+      <c r="BN42" s="28"/>
+      <c r="BO42" s="28"/>
+      <c r="BP42" s="28"/>
       <c r="BQ42" s="10"/>
       <c r="BR42" s="11"/>
     </row>
@@ -2654,91 +2654,91 @@
       <c r="H45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="17"/>
-      <c r="K45" s="31">
+      <c r="J45" s="16"/>
+      <c r="K45" s="24">
         <v>5</v>
       </c>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31">
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24">
         <v>10</v>
       </c>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31">
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24">
         <v>15</v>
       </c>
-      <c r="V45" s="31"/>
-      <c r="W45" s="31"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31">
+      <c r="V45" s="24"/>
+      <c r="W45" s="24"/>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="24"/>
+      <c r="Z45" s="24">
         <v>20</v>
       </c>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="31"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31">
+      <c r="AA45" s="24"/>
+      <c r="AB45" s="24"/>
+      <c r="AC45" s="24"/>
+      <c r="AD45" s="24"/>
+      <c r="AE45" s="24">
         <v>25</v>
       </c>
-      <c r="AF45" s="31"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="31"/>
-      <c r="AI45" s="31"/>
-      <c r="AJ45" s="31">
+      <c r="AF45" s="24"/>
+      <c r="AG45" s="24"/>
+      <c r="AH45" s="24"/>
+      <c r="AI45" s="24"/>
+      <c r="AJ45" s="24">
         <v>30</v>
       </c>
-      <c r="AK45" s="31"/>
-      <c r="AL45" s="31"/>
-      <c r="AM45" s="31"/>
-      <c r="AN45" s="31"/>
-      <c r="AO45" s="31">
+      <c r="AK45" s="24"/>
+      <c r="AL45" s="24"/>
+      <c r="AM45" s="24"/>
+      <c r="AN45" s="24"/>
+      <c r="AO45" s="24">
         <v>35</v>
       </c>
-      <c r="AP45" s="31"/>
-      <c r="AQ45" s="31"/>
-      <c r="AR45" s="31"/>
-      <c r="AS45" s="31"/>
-      <c r="AT45" s="31">
+      <c r="AP45" s="24"/>
+      <c r="AQ45" s="24"/>
+      <c r="AR45" s="24"/>
+      <c r="AS45" s="24"/>
+      <c r="AT45" s="24">
         <v>40</v>
       </c>
-      <c r="AU45" s="31"/>
-      <c r="AV45" s="31"/>
-      <c r="AW45" s="31"/>
-      <c r="AX45" s="31"/>
-      <c r="AY45" s="31">
+      <c r="AU45" s="24"/>
+      <c r="AV45" s="24"/>
+      <c r="AW45" s="24"/>
+      <c r="AX45" s="24"/>
+      <c r="AY45" s="24">
         <v>45</v>
       </c>
-      <c r="AZ45" s="31"/>
-      <c r="BA45" s="31"/>
-      <c r="BB45" s="31"/>
-      <c r="BC45" s="31"/>
-      <c r="BD45" s="31">
+      <c r="AZ45" s="24"/>
+      <c r="BA45" s="24"/>
+      <c r="BB45" s="24"/>
+      <c r="BC45" s="24"/>
+      <c r="BD45" s="24">
         <v>50</v>
       </c>
-      <c r="BE45" s="31"/>
-      <c r="BF45" s="31"/>
-      <c r="BG45" s="31"/>
-      <c r="BH45" s="31"/>
-      <c r="BI45" s="31">
+      <c r="BE45" s="24"/>
+      <c r="BF45" s="24"/>
+      <c r="BG45" s="24"/>
+      <c r="BH45" s="24"/>
+      <c r="BI45" s="24">
         <v>55</v>
       </c>
-      <c r="BJ45" s="31"/>
-      <c r="BK45" s="31"/>
-      <c r="BL45" s="31"/>
-      <c r="BM45" s="31"/>
-      <c r="BN45" s="31">
+      <c r="BJ45" s="24"/>
+      <c r="BK45" s="24"/>
+      <c r="BL45" s="24"/>
+      <c r="BM45" s="24"/>
+      <c r="BN45" s="24">
         <v>60</v>
       </c>
-      <c r="BO45" s="31"/>
-      <c r="BP45" s="31"/>
-      <c r="BQ45" s="31"/>
-      <c r="BR45" s="32"/>
+      <c r="BO45" s="24"/>
+      <c r="BP45" s="24"/>
+      <c r="BQ45" s="24"/>
+      <c r="BR45" s="25"/>
     </row>
     <row r="46" spans="2:70" x14ac:dyDescent="0.25">
       <c r="C46" s="6" t="s">
@@ -2759,48 +2759,48 @@
       <c r="H46" s="8">
         <v>0</v>
       </c>
-      <c r="J46" s="18" t="s">
+      <c r="J46" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="24"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="24"/>
-      <c r="AF46" s="24"/>
-      <c r="AG46" s="24"/>
-      <c r="AH46" s="24"/>
-      <c r="AI46" s="24"/>
-      <c r="AJ46" s="24"/>
-      <c r="AK46" s="24"/>
-      <c r="AL46" s="24"/>
-      <c r="AM46" s="24"/>
-      <c r="AN46" s="24"/>
-      <c r="AO46" s="24"/>
-      <c r="AP46" s="24"/>
-      <c r="AQ46" s="24"/>
-      <c r="AR46" s="24"/>
-      <c r="AS46" s="24"/>
-      <c r="AT46" s="24"/>
-      <c r="AU46" s="24"/>
-      <c r="AV46" s="24"/>
-      <c r="AW46" s="24"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
+      <c r="AF46" s="19"/>
+      <c r="AG46" s="19"/>
+      <c r="AH46" s="19"/>
+      <c r="AI46" s="19"/>
+      <c r="AJ46" s="19"/>
+      <c r="AK46" s="19"/>
+      <c r="AL46" s="19"/>
+      <c r="AM46" s="19"/>
+      <c r="AN46" s="19"/>
+      <c r="AO46" s="19"/>
+      <c r="AP46" s="19"/>
+      <c r="AQ46" s="19"/>
+      <c r="AR46" s="19"/>
+      <c r="AS46" s="19"/>
+      <c r="AT46" s="19"/>
+      <c r="AU46" s="19"/>
+      <c r="AV46" s="19"/>
+      <c r="AW46" s="19"/>
       <c r="AX46" s="7"/>
       <c r="AY46" s="7"/>
       <c r="AZ46" s="7"/>
@@ -2842,48 +2842,48 @@
       <c r="H47" s="8">
         <v>7</v>
       </c>
-      <c r="J47" s="18" t="s">
+      <c r="J47" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="20"/>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19"/>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="19"/>
-      <c r="AG47" s="24"/>
-      <c r="AH47" s="24"/>
-      <c r="AI47" s="24"/>
-      <c r="AJ47" s="24"/>
-      <c r="AK47" s="24"/>
-      <c r="AL47" s="24"/>
-      <c r="AM47" s="24"/>
-      <c r="AN47" s="24"/>
-      <c r="AO47" s="24"/>
-      <c r="AP47" s="24"/>
-      <c r="AQ47" s="24"/>
-      <c r="AR47" s="24"/>
-      <c r="AS47" s="24"/>
-      <c r="AT47" s="24"/>
-      <c r="AU47" s="24"/>
-      <c r="AV47" s="24"/>
-      <c r="AW47" s="24"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27"/>
+      <c r="AE47" s="27"/>
+      <c r="AF47" s="27"/>
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="19"/>
+      <c r="AI47" s="19"/>
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="19"/>
+      <c r="AL47" s="19"/>
+      <c r="AM47" s="19"/>
+      <c r="AN47" s="19"/>
+      <c r="AO47" s="19"/>
+      <c r="AP47" s="19"/>
+      <c r="AQ47" s="19"/>
+      <c r="AR47" s="19"/>
+      <c r="AS47" s="19"/>
+      <c r="AT47" s="19"/>
+      <c r="AU47" s="19"/>
+      <c r="AV47" s="19"/>
+      <c r="AW47" s="19"/>
       <c r="AX47" s="7"/>
       <c r="AY47" s="7"/>
       <c r="AZ47" s="7"/>
@@ -2925,67 +2925,67 @@
       <c r="H48" s="8">
         <v>20</v>
       </c>
-      <c r="J48" s="18" t="s">
+      <c r="J48" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20"/>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="20"/>
-      <c r="AC48" s="20"/>
-      <c r="AD48" s="20"/>
-      <c r="AE48" s="20"/>
-      <c r="AF48" s="20"/>
-      <c r="AG48" s="20"/>
-      <c r="AH48" s="20"/>
-      <c r="AI48" s="20"/>
-      <c r="AJ48" s="20"/>
-      <c r="AK48" s="20"/>
-      <c r="AL48" s="20"/>
-      <c r="AM48" s="20"/>
-      <c r="AN48" s="20"/>
-      <c r="AO48" s="20"/>
-      <c r="AP48" s="20"/>
-      <c r="AQ48" s="19"/>
-      <c r="AR48" s="19"/>
-      <c r="AS48" s="19"/>
-      <c r="AT48" s="19"/>
-      <c r="AU48" s="19"/>
-      <c r="AV48" s="19"/>
-      <c r="AW48" s="19"/>
-      <c r="AX48" s="19"/>
-      <c r="AY48" s="19"/>
-      <c r="AZ48" s="19"/>
-      <c r="BA48" s="19"/>
-      <c r="BB48" s="19"/>
-      <c r="BC48" s="19"/>
-      <c r="BD48" s="19"/>
-      <c r="BE48" s="19"/>
-      <c r="BF48" s="19"/>
-      <c r="BG48" s="19"/>
-      <c r="BH48" s="19"/>
-      <c r="BI48" s="19"/>
-      <c r="BJ48" s="19"/>
-      <c r="BK48" s="19"/>
-      <c r="BL48" s="19"/>
-      <c r="BM48" s="19"/>
-      <c r="BN48" s="19"/>
-      <c r="BO48" s="19"/>
-      <c r="BP48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="32"/>
+      <c r="AD48" s="32"/>
+      <c r="AE48" s="32"/>
+      <c r="AF48" s="32"/>
+      <c r="AG48" s="32"/>
+      <c r="AH48" s="32"/>
+      <c r="AI48" s="32"/>
+      <c r="AJ48" s="32"/>
+      <c r="AK48" s="32"/>
+      <c r="AL48" s="32"/>
+      <c r="AM48" s="32"/>
+      <c r="AN48" s="32"/>
+      <c r="AO48" s="32"/>
+      <c r="AP48" s="32"/>
+      <c r="AQ48" s="27"/>
+      <c r="AR48" s="27"/>
+      <c r="AS48" s="27"/>
+      <c r="AT48" s="27"/>
+      <c r="AU48" s="27"/>
+      <c r="AV48" s="27"/>
+      <c r="AW48" s="27"/>
+      <c r="AX48" s="27"/>
+      <c r="AY48" s="27"/>
+      <c r="AZ48" s="27"/>
+      <c r="BA48" s="27"/>
+      <c r="BB48" s="27"/>
+      <c r="BC48" s="27"/>
+      <c r="BD48" s="27"/>
+      <c r="BE48" s="27"/>
+      <c r="BF48" s="27"/>
+      <c r="BG48" s="27"/>
+      <c r="BH48" s="27"/>
+      <c r="BI48" s="27"/>
+      <c r="BJ48" s="27"/>
+      <c r="BK48" s="27"/>
+      <c r="BL48" s="27"/>
+      <c r="BM48" s="27"/>
+      <c r="BN48" s="27"/>
+      <c r="BO48" s="27"/>
+      <c r="BP48" s="27"/>
       <c r="BQ48" s="7"/>
       <c r="BR48" s="8"/>
     </row>
@@ -3008,48 +3008,48 @@
       <c r="H49" s="8">
         <v>2</v>
       </c>
-      <c r="J49" s="21" t="s">
+      <c r="J49" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="25"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="25"/>
-      <c r="AA49" s="25"/>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="25"/>
-      <c r="AD49" s="25"/>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
-      <c r="AG49" s="23"/>
-      <c r="AH49" s="23"/>
-      <c r="AI49" s="23"/>
-      <c r="AJ49" s="23"/>
-      <c r="AK49" s="23"/>
-      <c r="AL49" s="23"/>
-      <c r="AM49" s="23"/>
-      <c r="AN49" s="23"/>
-      <c r="AO49" s="23"/>
-      <c r="AP49" s="23"/>
-      <c r="AQ49" s="25"/>
-      <c r="AR49" s="25"/>
-      <c r="AS49" s="25"/>
-      <c r="AT49" s="25"/>
-      <c r="AU49" s="25"/>
-      <c r="AV49" s="25"/>
-      <c r="AW49" s="25"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="20"/>
+      <c r="AE49" s="33"/>
+      <c r="AF49" s="33"/>
+      <c r="AG49" s="28"/>
+      <c r="AH49" s="28"/>
+      <c r="AI49" s="28"/>
+      <c r="AJ49" s="28"/>
+      <c r="AK49" s="28"/>
+      <c r="AL49" s="28"/>
+      <c r="AM49" s="28"/>
+      <c r="AN49" s="28"/>
+      <c r="AO49" s="28"/>
+      <c r="AP49" s="28"/>
+      <c r="AQ49" s="20"/>
+      <c r="AR49" s="20"/>
+      <c r="AS49" s="20"/>
+      <c r="AT49" s="20"/>
+      <c r="AU49" s="20"/>
+      <c r="AV49" s="20"/>
+      <c r="AW49" s="20"/>
       <c r="AX49" s="10"/>
       <c r="AY49" s="10"/>
       <c r="AZ49" s="10"/>
@@ -3088,45 +3088,45 @@
         <v>7.25</v>
       </c>
       <c r="J50" s="7"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="24"/>
-      <c r="AA50" s="24"/>
-      <c r="AB50" s="24"/>
-      <c r="AC50" s="24"/>
-      <c r="AD50" s="24"/>
-      <c r="AE50" s="24"/>
-      <c r="AF50" s="24"/>
-      <c r="AG50" s="24"/>
-      <c r="AH50" s="24"/>
-      <c r="AI50" s="24"/>
-      <c r="AJ50" s="24"/>
-      <c r="AK50" s="24"/>
-      <c r="AL50" s="24"/>
-      <c r="AM50" s="24"/>
-      <c r="AN50" s="24"/>
-      <c r="AO50" s="24"/>
-      <c r="AP50" s="24"/>
-      <c r="AQ50" s="24"/>
-      <c r="AR50" s="24"/>
-      <c r="AS50" s="24"/>
-      <c r="AT50" s="24"/>
-      <c r="AU50" s="24"/>
-      <c r="AV50" s="24"/>
-      <c r="AW50" s="24"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
+      <c r="AF50" s="19"/>
+      <c r="AG50" s="19"/>
+      <c r="AH50" s="19"/>
+      <c r="AI50" s="19"/>
+      <c r="AJ50" s="19"/>
+      <c r="AK50" s="19"/>
+      <c r="AL50" s="19"/>
+      <c r="AM50" s="19"/>
+      <c r="AN50" s="19"/>
+      <c r="AO50" s="19"/>
+      <c r="AP50" s="19"/>
+      <c r="AQ50" s="19"/>
+      <c r="AR50" s="19"/>
+      <c r="AS50" s="19"/>
+      <c r="AT50" s="19"/>
+      <c r="AU50" s="19"/>
+      <c r="AV50" s="19"/>
+      <c r="AW50" s="19"/>
       <c r="AX50" s="7"/>
     </row>
     <row r="51" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3150,91 +3150,91 @@
       <c r="H52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="17"/>
-      <c r="K52" s="31">
+      <c r="J52" s="16"/>
+      <c r="K52" s="24">
         <v>5</v>
       </c>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31">
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24">
         <v>10</v>
       </c>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="31">
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="24">
         <v>15</v>
       </c>
-      <c r="V52" s="31"/>
-      <c r="W52" s="31"/>
-      <c r="X52" s="31"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="31">
+      <c r="V52" s="24"/>
+      <c r="W52" s="24"/>
+      <c r="X52" s="24"/>
+      <c r="Y52" s="24"/>
+      <c r="Z52" s="24">
         <v>20</v>
       </c>
-      <c r="AA52" s="31"/>
-      <c r="AB52" s="31"/>
-      <c r="AC52" s="31"/>
-      <c r="AD52" s="31"/>
-      <c r="AE52" s="31">
+      <c r="AA52" s="24"/>
+      <c r="AB52" s="24"/>
+      <c r="AC52" s="24"/>
+      <c r="AD52" s="24"/>
+      <c r="AE52" s="24">
         <v>25</v>
       </c>
-      <c r="AF52" s="31"/>
-      <c r="AG52" s="31"/>
-      <c r="AH52" s="31"/>
-      <c r="AI52" s="31"/>
-      <c r="AJ52" s="31">
+      <c r="AF52" s="24"/>
+      <c r="AG52" s="24"/>
+      <c r="AH52" s="24"/>
+      <c r="AI52" s="24"/>
+      <c r="AJ52" s="24">
         <v>30</v>
       </c>
-      <c r="AK52" s="31"/>
-      <c r="AL52" s="31"/>
-      <c r="AM52" s="31"/>
-      <c r="AN52" s="31"/>
-      <c r="AO52" s="31">
+      <c r="AK52" s="24"/>
+      <c r="AL52" s="24"/>
+      <c r="AM52" s="24"/>
+      <c r="AN52" s="24"/>
+      <c r="AO52" s="24">
         <v>35</v>
       </c>
-      <c r="AP52" s="31"/>
-      <c r="AQ52" s="31"/>
-      <c r="AR52" s="31"/>
-      <c r="AS52" s="31"/>
-      <c r="AT52" s="31">
+      <c r="AP52" s="24"/>
+      <c r="AQ52" s="24"/>
+      <c r="AR52" s="24"/>
+      <c r="AS52" s="24"/>
+      <c r="AT52" s="24">
         <v>40</v>
       </c>
-      <c r="AU52" s="31"/>
-      <c r="AV52" s="31"/>
-      <c r="AW52" s="31"/>
-      <c r="AX52" s="31"/>
-      <c r="AY52" s="31">
+      <c r="AU52" s="24"/>
+      <c r="AV52" s="24"/>
+      <c r="AW52" s="24"/>
+      <c r="AX52" s="24"/>
+      <c r="AY52" s="24">
         <v>45</v>
       </c>
-      <c r="AZ52" s="31"/>
-      <c r="BA52" s="31"/>
-      <c r="BB52" s="31"/>
-      <c r="BC52" s="31"/>
-      <c r="BD52" s="31">
+      <c r="AZ52" s="24"/>
+      <c r="BA52" s="24"/>
+      <c r="BB52" s="24"/>
+      <c r="BC52" s="24"/>
+      <c r="BD52" s="24">
         <v>50</v>
       </c>
-      <c r="BE52" s="31"/>
-      <c r="BF52" s="31"/>
-      <c r="BG52" s="31"/>
-      <c r="BH52" s="31"/>
-      <c r="BI52" s="31">
+      <c r="BE52" s="24"/>
+      <c r="BF52" s="24"/>
+      <c r="BG52" s="24"/>
+      <c r="BH52" s="24"/>
+      <c r="BI52" s="24">
         <v>55</v>
       </c>
-      <c r="BJ52" s="31"/>
-      <c r="BK52" s="31"/>
-      <c r="BL52" s="31"/>
-      <c r="BM52" s="31"/>
-      <c r="BN52" s="31">
+      <c r="BJ52" s="24"/>
+      <c r="BK52" s="24"/>
+      <c r="BL52" s="24"/>
+      <c r="BM52" s="24"/>
+      <c r="BN52" s="24">
         <v>60</v>
       </c>
-      <c r="BO52" s="31"/>
-      <c r="BP52" s="31"/>
-      <c r="BQ52" s="31"/>
-      <c r="BR52" s="32"/>
+      <c r="BO52" s="24"/>
+      <c r="BP52" s="24"/>
+      <c r="BQ52" s="24"/>
+      <c r="BR52" s="25"/>
     </row>
     <row r="53" spans="2:70" x14ac:dyDescent="0.25">
       <c r="C53" s="14" t="s">
@@ -3255,69 +3255,69 @@
       <c r="H53" s="8">
         <v>0</v>
       </c>
-      <c r="J53" s="18" t="s">
+      <c r="J53" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="20"/>
-      <c r="Y53" s="20"/>
-      <c r="Z53" s="20"/>
-      <c r="AA53" s="20"/>
-      <c r="AB53" s="19"/>
-      <c r="AC53" s="19"/>
-      <c r="AD53" s="19"/>
-      <c r="AE53" s="19"/>
-      <c r="AF53" s="19"/>
-      <c r="AG53" s="24"/>
-      <c r="AH53" s="24"/>
-      <c r="AI53" s="24"/>
-      <c r="AJ53" s="24"/>
-      <c r="AK53" s="24"/>
-      <c r="AL53" s="24"/>
-      <c r="AM53" s="24"/>
-      <c r="AN53" s="24"/>
-      <c r="AO53" s="24"/>
-      <c r="AP53" s="24"/>
-      <c r="AQ53" s="24"/>
-      <c r="AR53" s="24"/>
-      <c r="AS53" s="24"/>
-      <c r="AT53" s="24"/>
-      <c r="AU53" s="24"/>
-      <c r="AV53" s="24"/>
-      <c r="AW53" s="24"/>
-      <c r="AX53" s="24"/>
-      <c r="AY53" s="24"/>
-      <c r="AZ53" s="24"/>
-      <c r="BA53" s="24"/>
-      <c r="BB53" s="24"/>
-      <c r="BC53" s="24"/>
-      <c r="BD53" s="24"/>
-      <c r="BE53" s="24"/>
-      <c r="BF53" s="24"/>
-      <c r="BG53" s="24"/>
-      <c r="BH53" s="24"/>
-      <c r="BI53" s="24"/>
-      <c r="BJ53" s="24"/>
-      <c r="BK53" s="24"/>
-      <c r="BL53" s="24"/>
-      <c r="BM53" s="24"/>
-      <c r="BN53" s="24"/>
-      <c r="BO53" s="24"/>
-      <c r="BP53" s="24"/>
-      <c r="BQ53" s="24"/>
-      <c r="BR53" s="26"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="32"/>
+      <c r="Z53" s="32"/>
+      <c r="AA53" s="32"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="27"/>
+      <c r="AE53" s="27"/>
+      <c r="AF53" s="27"/>
+      <c r="AG53" s="19"/>
+      <c r="AH53" s="19"/>
+      <c r="AI53" s="19"/>
+      <c r="AJ53" s="19"/>
+      <c r="AK53" s="19"/>
+      <c r="AL53" s="19"/>
+      <c r="AM53" s="19"/>
+      <c r="AN53" s="19"/>
+      <c r="AO53" s="19"/>
+      <c r="AP53" s="19"/>
+      <c r="AQ53" s="19"/>
+      <c r="AR53" s="19"/>
+      <c r="AS53" s="19"/>
+      <c r="AT53" s="19"/>
+      <c r="AU53" s="19"/>
+      <c r="AV53" s="19"/>
+      <c r="AW53" s="19"/>
+      <c r="AX53" s="19"/>
+      <c r="AY53" s="19"/>
+      <c r="AZ53" s="19"/>
+      <c r="BA53" s="19"/>
+      <c r="BB53" s="19"/>
+      <c r="BC53" s="19"/>
+      <c r="BD53" s="19"/>
+      <c r="BE53" s="19"/>
+      <c r="BF53" s="19"/>
+      <c r="BG53" s="19"/>
+      <c r="BH53" s="19"/>
+      <c r="BI53" s="19"/>
+      <c r="BJ53" s="19"/>
+      <c r="BK53" s="19"/>
+      <c r="BL53" s="19"/>
+      <c r="BM53" s="19"/>
+      <c r="BN53" s="19"/>
+      <c r="BO53" s="19"/>
+      <c r="BP53" s="19"/>
+      <c r="BQ53" s="19"/>
+      <c r="BR53" s="21"/>
     </row>
     <row r="54" spans="2:70" x14ac:dyDescent="0.25">
       <c r="C54" s="6"/>
@@ -3332,64 +3332,64 @@
       <c r="H54" s="8">
         <v>7</v>
       </c>
-      <c r="J54" s="18" t="s">
+      <c r="J54" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="16"/>
-      <c r="Y54" s="16"/>
-      <c r="Z54" s="16"/>
-      <c r="AA54" s="16"/>
-      <c r="AG54" s="24"/>
-      <c r="AH54" s="24"/>
-      <c r="AI54" s="24"/>
-      <c r="AJ54" s="24"/>
-      <c r="AK54" s="24"/>
-      <c r="AL54" s="24"/>
-      <c r="AM54" s="24"/>
-      <c r="AN54" s="24"/>
-      <c r="AO54" s="24"/>
-      <c r="AP54" s="24"/>
-      <c r="AQ54" s="24"/>
-      <c r="AR54" s="24"/>
-      <c r="AS54" s="24"/>
-      <c r="AT54" s="24"/>
-      <c r="AU54" s="24"/>
-      <c r="AV54" s="24"/>
-      <c r="AW54" s="24"/>
-      <c r="AX54" s="24"/>
-      <c r="AY54" s="24"/>
-      <c r="AZ54" s="24"/>
-      <c r="BA54" s="24"/>
-      <c r="BB54" s="24"/>
-      <c r="BC54" s="24"/>
-      <c r="BD54" s="24"/>
-      <c r="BE54" s="24"/>
-      <c r="BF54" s="24"/>
-      <c r="BG54" s="24"/>
-      <c r="BH54" s="24"/>
-      <c r="BI54" s="24"/>
-      <c r="BJ54" s="24"/>
-      <c r="BK54" s="24"/>
-      <c r="BL54" s="24"/>
-      <c r="BM54" s="24"/>
-      <c r="BN54" s="24"/>
-      <c r="BO54" s="24"/>
-      <c r="BP54" s="24"/>
-      <c r="BQ54" s="24"/>
-      <c r="BR54" s="26"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="30"/>
+      <c r="AG54" s="19"/>
+      <c r="AH54" s="19"/>
+      <c r="AI54" s="19"/>
+      <c r="AJ54" s="19"/>
+      <c r="AK54" s="19"/>
+      <c r="AL54" s="19"/>
+      <c r="AM54" s="19"/>
+      <c r="AN54" s="19"/>
+      <c r="AO54" s="19"/>
+      <c r="AP54" s="19"/>
+      <c r="AQ54" s="19"/>
+      <c r="AR54" s="19"/>
+      <c r="AS54" s="19"/>
+      <c r="AT54" s="19"/>
+      <c r="AU54" s="19"/>
+      <c r="AV54" s="19"/>
+      <c r="AW54" s="19"/>
+      <c r="AX54" s="19"/>
+      <c r="AY54" s="19"/>
+      <c r="AZ54" s="19"/>
+      <c r="BA54" s="19"/>
+      <c r="BB54" s="19"/>
+      <c r="BC54" s="19"/>
+      <c r="BD54" s="19"/>
+      <c r="BE54" s="19"/>
+      <c r="BF54" s="19"/>
+      <c r="BG54" s="19"/>
+      <c r="BH54" s="19"/>
+      <c r="BI54" s="19"/>
+      <c r="BJ54" s="19"/>
+      <c r="BK54" s="19"/>
+      <c r="BL54" s="19"/>
+      <c r="BM54" s="19"/>
+      <c r="BN54" s="19"/>
+      <c r="BO54" s="19"/>
+      <c r="BP54" s="19"/>
+      <c r="BQ54" s="19"/>
+      <c r="BR54" s="21"/>
     </row>
     <row r="55" spans="2:70" x14ac:dyDescent="0.25">
       <c r="C55" s="6" t="s">
@@ -3410,69 +3410,69 @@
       <c r="H55" s="8">
         <v>2</v>
       </c>
-      <c r="J55" s="18" t="s">
+      <c r="J55" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="24"/>
-      <c r="T55" s="24"/>
-      <c r="U55" s="24"/>
-      <c r="V55" s="24"/>
-      <c r="W55" s="20"/>
-      <c r="X55" s="20"/>
-      <c r="Y55" s="20"/>
-      <c r="Z55" s="20"/>
-      <c r="AA55" s="20"/>
-      <c r="AB55" s="20"/>
-      <c r="AC55" s="20"/>
-      <c r="AD55" s="20"/>
-      <c r="AE55" s="20"/>
-      <c r="AF55" s="20"/>
-      <c r="AG55" s="19"/>
-      <c r="AH55" s="19"/>
-      <c r="AI55" s="19"/>
-      <c r="AJ55" s="19"/>
-      <c r="AK55" s="19"/>
-      <c r="AL55" s="19"/>
-      <c r="AM55" s="19"/>
-      <c r="AN55" s="19"/>
-      <c r="AO55" s="19"/>
-      <c r="AP55" s="19"/>
-      <c r="AQ55" s="20"/>
-      <c r="AR55" s="20"/>
-      <c r="AS55" s="20"/>
-      <c r="AT55" s="20"/>
-      <c r="AU55" s="20"/>
-      <c r="AV55" s="20"/>
-      <c r="AW55" s="20"/>
-      <c r="AX55" s="20"/>
-      <c r="AY55" s="20"/>
-      <c r="AZ55" s="20"/>
-      <c r="BA55" s="19"/>
-      <c r="BB55" s="19"/>
-      <c r="BC55" s="19"/>
-      <c r="BD55" s="19"/>
-      <c r="BE55" s="19"/>
-      <c r="BF55" s="19"/>
-      <c r="BG55" s="19"/>
-      <c r="BH55" s="19"/>
-      <c r="BI55" s="19"/>
-      <c r="BJ55" s="19"/>
-      <c r="BK55" s="19"/>
-      <c r="BL55" s="19"/>
-      <c r="BM55" s="19"/>
-      <c r="BN55" s="19"/>
-      <c r="BO55" s="19"/>
-      <c r="BP55" s="19"/>
-      <c r="BQ55" s="24"/>
-      <c r="BR55" s="26"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="32"/>
+      <c r="Z55" s="32"/>
+      <c r="AA55" s="32"/>
+      <c r="AB55" s="32"/>
+      <c r="AC55" s="32"/>
+      <c r="AD55" s="32"/>
+      <c r="AE55" s="32"/>
+      <c r="AF55" s="32"/>
+      <c r="AG55" s="27"/>
+      <c r="AH55" s="27"/>
+      <c r="AI55" s="27"/>
+      <c r="AJ55" s="27"/>
+      <c r="AK55" s="27"/>
+      <c r="AL55" s="27"/>
+      <c r="AM55" s="27"/>
+      <c r="AN55" s="27"/>
+      <c r="AO55" s="27"/>
+      <c r="AP55" s="27"/>
+      <c r="AQ55" s="32"/>
+      <c r="AR55" s="32"/>
+      <c r="AS55" s="32"/>
+      <c r="AT55" s="32"/>
+      <c r="AU55" s="32"/>
+      <c r="AV55" s="32"/>
+      <c r="AW55" s="32"/>
+      <c r="AX55" s="32"/>
+      <c r="AY55" s="32"/>
+      <c r="AZ55" s="32"/>
+      <c r="BA55" s="27"/>
+      <c r="BB55" s="27"/>
+      <c r="BC55" s="27"/>
+      <c r="BD55" s="27"/>
+      <c r="BE55" s="27"/>
+      <c r="BF55" s="27"/>
+      <c r="BG55" s="27"/>
+      <c r="BH55" s="27"/>
+      <c r="BI55" s="27"/>
+      <c r="BJ55" s="27"/>
+      <c r="BK55" s="27"/>
+      <c r="BL55" s="27"/>
+      <c r="BM55" s="27"/>
+      <c r="BN55" s="27"/>
+      <c r="BO55" s="27"/>
+      <c r="BP55" s="27"/>
+      <c r="BQ55" s="19"/>
+      <c r="BR55" s="21"/>
     </row>
     <row r="56" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="6" t="s">
@@ -3493,69 +3493,69 @@
       <c r="H56" s="8">
         <v>10</v>
       </c>
-      <c r="J56" s="21" t="s">
+      <c r="J56" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="25"/>
-      <c r="U56" s="25"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="25"/>
-      <c r="X56" s="25"/>
-      <c r="Y56" s="25"/>
-      <c r="Z56" s="25"/>
-      <c r="AA56" s="25"/>
-      <c r="AB56" s="25"/>
-      <c r="AC56" s="25"/>
-      <c r="AD56" s="25"/>
-      <c r="AE56" s="22"/>
-      <c r="AF56" s="22"/>
-      <c r="AG56" s="22"/>
-      <c r="AH56" s="22"/>
-      <c r="AI56" s="22"/>
-      <c r="AJ56" s="22"/>
-      <c r="AK56" s="22"/>
-      <c r="AL56" s="22"/>
-      <c r="AM56" s="22"/>
-      <c r="AN56" s="22"/>
-      <c r="AO56" s="22"/>
-      <c r="AP56" s="22"/>
-      <c r="AQ56" s="23"/>
-      <c r="AR56" s="23"/>
-      <c r="AS56" s="23"/>
-      <c r="AT56" s="23"/>
-      <c r="AU56" s="23"/>
-      <c r="AV56" s="23"/>
-      <c r="AW56" s="23"/>
-      <c r="AX56" s="23"/>
-      <c r="AY56" s="23"/>
-      <c r="AZ56" s="23"/>
-      <c r="BA56" s="25"/>
-      <c r="BB56" s="25"/>
-      <c r="BC56" s="25"/>
-      <c r="BD56" s="25"/>
-      <c r="BE56" s="25"/>
-      <c r="BF56" s="25"/>
-      <c r="BG56" s="25"/>
-      <c r="BH56" s="25"/>
-      <c r="BI56" s="25"/>
-      <c r="BJ56" s="25"/>
-      <c r="BK56" s="25"/>
-      <c r="BL56" s="25"/>
-      <c r="BM56" s="25"/>
-      <c r="BN56" s="25"/>
-      <c r="BO56" s="25"/>
-      <c r="BP56" s="25"/>
-      <c r="BQ56" s="25"/>
-      <c r="BR56" s="28"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="20"/>
+      <c r="AE56" s="33"/>
+      <c r="AF56" s="33"/>
+      <c r="AG56" s="33"/>
+      <c r="AH56" s="33"/>
+      <c r="AI56" s="33"/>
+      <c r="AJ56" s="33"/>
+      <c r="AK56" s="33"/>
+      <c r="AL56" s="33"/>
+      <c r="AM56" s="33"/>
+      <c r="AN56" s="33"/>
+      <c r="AO56" s="33"/>
+      <c r="AP56" s="33"/>
+      <c r="AQ56" s="28"/>
+      <c r="AR56" s="28"/>
+      <c r="AS56" s="28"/>
+      <c r="AT56" s="28"/>
+      <c r="AU56" s="28"/>
+      <c r="AV56" s="28"/>
+      <c r="AW56" s="28"/>
+      <c r="AX56" s="28"/>
+      <c r="AY56" s="28"/>
+      <c r="AZ56" s="28"/>
+      <c r="BA56" s="20"/>
+      <c r="BB56" s="20"/>
+      <c r="BC56" s="20"/>
+      <c r="BD56" s="20"/>
+      <c r="BE56" s="20"/>
+      <c r="BF56" s="20"/>
+      <c r="BG56" s="20"/>
+      <c r="BH56" s="20"/>
+      <c r="BI56" s="20"/>
+      <c r="BJ56" s="20"/>
+      <c r="BK56" s="20"/>
+      <c r="BL56" s="20"/>
+      <c r="BM56" s="20"/>
+      <c r="BN56" s="20"/>
+      <c r="BO56" s="20"/>
+      <c r="BP56" s="20"/>
+      <c r="BQ56" s="20"/>
+      <c r="BR56" s="22"/>
     </row>
     <row r="57" spans="2:70" x14ac:dyDescent="0.25">
       <c r="C57" s="6"/>
@@ -3627,91 +3627,91 @@
       <c r="H61" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J61" s="17"/>
-      <c r="K61" s="31">
+      <c r="J61" s="16"/>
+      <c r="K61" s="24">
         <v>5</v>
       </c>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31">
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24">
         <v>10</v>
       </c>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="31">
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="24"/>
+      <c r="U61" s="24">
         <v>15</v>
       </c>
-      <c r="V61" s="31"/>
-      <c r="W61" s="31"/>
-      <c r="X61" s="31"/>
-      <c r="Y61" s="31"/>
-      <c r="Z61" s="31">
+      <c r="V61" s="24"/>
+      <c r="W61" s="24"/>
+      <c r="X61" s="24"/>
+      <c r="Y61" s="24"/>
+      <c r="Z61" s="24">
         <v>20</v>
       </c>
-      <c r="AA61" s="31"/>
-      <c r="AB61" s="31"/>
-      <c r="AC61" s="31"/>
-      <c r="AD61" s="31"/>
-      <c r="AE61" s="31">
+      <c r="AA61" s="24"/>
+      <c r="AB61" s="24"/>
+      <c r="AC61" s="24"/>
+      <c r="AD61" s="24"/>
+      <c r="AE61" s="24">
         <v>25</v>
       </c>
-      <c r="AF61" s="31"/>
-      <c r="AG61" s="31"/>
-      <c r="AH61" s="31"/>
-      <c r="AI61" s="31"/>
-      <c r="AJ61" s="31">
+      <c r="AF61" s="24"/>
+      <c r="AG61" s="24"/>
+      <c r="AH61" s="24"/>
+      <c r="AI61" s="24"/>
+      <c r="AJ61" s="24">
         <v>30</v>
       </c>
-      <c r="AK61" s="31"/>
-      <c r="AL61" s="31"/>
-      <c r="AM61" s="31"/>
-      <c r="AN61" s="31"/>
-      <c r="AO61" s="31">
+      <c r="AK61" s="24"/>
+      <c r="AL61" s="24"/>
+      <c r="AM61" s="24"/>
+      <c r="AN61" s="24"/>
+      <c r="AO61" s="24">
         <v>35</v>
       </c>
-      <c r="AP61" s="31"/>
-      <c r="AQ61" s="31"/>
-      <c r="AR61" s="31"/>
-      <c r="AS61" s="31"/>
-      <c r="AT61" s="31">
+      <c r="AP61" s="24"/>
+      <c r="AQ61" s="24"/>
+      <c r="AR61" s="24"/>
+      <c r="AS61" s="24"/>
+      <c r="AT61" s="24">
         <v>40</v>
       </c>
-      <c r="AU61" s="31"/>
-      <c r="AV61" s="31"/>
-      <c r="AW61" s="31"/>
-      <c r="AX61" s="31"/>
-      <c r="AY61" s="31">
+      <c r="AU61" s="24"/>
+      <c r="AV61" s="24"/>
+      <c r="AW61" s="24"/>
+      <c r="AX61" s="24"/>
+      <c r="AY61" s="24">
         <v>45</v>
       </c>
-      <c r="AZ61" s="31"/>
-      <c r="BA61" s="31"/>
-      <c r="BB61" s="31"/>
-      <c r="BC61" s="31"/>
-      <c r="BD61" s="31">
+      <c r="AZ61" s="24"/>
+      <c r="BA61" s="24"/>
+      <c r="BB61" s="24"/>
+      <c r="BC61" s="24"/>
+      <c r="BD61" s="24">
         <v>50</v>
       </c>
-      <c r="BE61" s="31"/>
-      <c r="BF61" s="31"/>
-      <c r="BG61" s="31"/>
-      <c r="BH61" s="31"/>
-      <c r="BI61" s="31">
+      <c r="BE61" s="24"/>
+      <c r="BF61" s="24"/>
+      <c r="BG61" s="24"/>
+      <c r="BH61" s="24"/>
+      <c r="BI61" s="24">
         <v>55</v>
       </c>
-      <c r="BJ61" s="31"/>
-      <c r="BK61" s="31"/>
-      <c r="BL61" s="31"/>
-      <c r="BM61" s="31"/>
-      <c r="BN61" s="31">
+      <c r="BJ61" s="24"/>
+      <c r="BK61" s="24"/>
+      <c r="BL61" s="24"/>
+      <c r="BM61" s="24"/>
+      <c r="BN61" s="24">
         <v>68</v>
       </c>
-      <c r="BO61" s="31"/>
-      <c r="BP61" s="31"/>
-      <c r="BQ61" s="31"/>
-      <c r="BR61" s="32"/>
+      <c r="BO61" s="24"/>
+      <c r="BP61" s="24"/>
+      <c r="BQ61" s="24"/>
+      <c r="BR61" s="25"/>
     </row>
     <row r="62" spans="2:70" x14ac:dyDescent="0.25">
       <c r="C62" s="14" t="s">
@@ -3732,69 +3732,69 @@
       <c r="H62" s="8">
         <v>0</v>
       </c>
-      <c r="J62" s="18" t="s">
+      <c r="J62" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="20"/>
-      <c r="W62" s="20"/>
-      <c r="X62" s="20"/>
-      <c r="Y62" s="20"/>
-      <c r="Z62" s="20"/>
-      <c r="AA62" s="20"/>
-      <c r="AB62" s="20"/>
-      <c r="AC62" s="19"/>
-      <c r="AD62" s="19"/>
-      <c r="AE62" s="19"/>
-      <c r="AF62" s="19"/>
-      <c r="AG62" s="24"/>
-      <c r="AH62" s="24"/>
-      <c r="AI62" s="24"/>
-      <c r="AJ62" s="24"/>
-      <c r="AK62" s="24"/>
-      <c r="AL62" s="24"/>
-      <c r="AM62" s="24"/>
-      <c r="AN62" s="24"/>
-      <c r="AO62" s="24"/>
-      <c r="AP62" s="24"/>
-      <c r="AQ62" s="24"/>
-      <c r="AR62" s="24"/>
-      <c r="AS62" s="24"/>
-      <c r="AT62" s="24"/>
-      <c r="AU62" s="24"/>
-      <c r="AV62" s="24"/>
-      <c r="AW62" s="24"/>
-      <c r="AX62" s="24"/>
-      <c r="AY62" s="24"/>
-      <c r="AZ62" s="24"/>
-      <c r="BA62" s="24"/>
-      <c r="BB62" s="24"/>
-      <c r="BC62" s="24"/>
-      <c r="BD62" s="24"/>
-      <c r="BE62" s="24"/>
-      <c r="BF62" s="24"/>
-      <c r="BG62" s="24"/>
-      <c r="BH62" s="24"/>
-      <c r="BI62" s="24"/>
-      <c r="BJ62" s="24"/>
-      <c r="BK62" s="24"/>
-      <c r="BL62" s="24"/>
-      <c r="BM62" s="24"/>
-      <c r="BN62" s="24"/>
-      <c r="BO62" s="24"/>
-      <c r="BP62" s="24"/>
-      <c r="BQ62" s="24"/>
-      <c r="BR62" s="26"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="27"/>
+      <c r="T62" s="27"/>
+      <c r="U62" s="32"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="32"/>
+      <c r="Y62" s="32"/>
+      <c r="Z62" s="32"/>
+      <c r="AA62" s="32"/>
+      <c r="AB62" s="32"/>
+      <c r="AC62" s="27"/>
+      <c r="AD62" s="27"/>
+      <c r="AE62" s="27"/>
+      <c r="AF62" s="27"/>
+      <c r="AG62" s="19"/>
+      <c r="AH62" s="19"/>
+      <c r="AI62" s="19"/>
+      <c r="AJ62" s="19"/>
+      <c r="AK62" s="19"/>
+      <c r="AL62" s="19"/>
+      <c r="AM62" s="19"/>
+      <c r="AN62" s="19"/>
+      <c r="AO62" s="19"/>
+      <c r="AP62" s="19"/>
+      <c r="AQ62" s="19"/>
+      <c r="AR62" s="19"/>
+      <c r="AS62" s="19"/>
+      <c r="AT62" s="19"/>
+      <c r="AU62" s="19"/>
+      <c r="AV62" s="19"/>
+      <c r="AW62" s="19"/>
+      <c r="AX62" s="19"/>
+      <c r="AY62" s="19"/>
+      <c r="AZ62" s="19"/>
+      <c r="BA62" s="19"/>
+      <c r="BB62" s="19"/>
+      <c r="BC62" s="19"/>
+      <c r="BD62" s="19"/>
+      <c r="BE62" s="19"/>
+      <c r="BF62" s="19"/>
+      <c r="BG62" s="19"/>
+      <c r="BH62" s="19"/>
+      <c r="BI62" s="19"/>
+      <c r="BJ62" s="19"/>
+      <c r="BK62" s="19"/>
+      <c r="BL62" s="19"/>
+      <c r="BM62" s="19"/>
+      <c r="BN62" s="19"/>
+      <c r="BO62" s="19"/>
+      <c r="BP62" s="19"/>
+      <c r="BQ62" s="19"/>
+      <c r="BR62" s="21"/>
     </row>
     <row r="63" spans="2:70" x14ac:dyDescent="0.25">
       <c r="C63" s="6"/>
@@ -3809,69 +3809,69 @@
       <c r="H63" s="8">
         <v>8</v>
       </c>
-      <c r="J63" s="18" t="s">
+      <c r="J63" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
-      <c r="W63" s="16"/>
-      <c r="X63" s="16"/>
-      <c r="Y63" s="16"/>
-      <c r="Z63" s="16"/>
-      <c r="AA63" s="16"/>
-      <c r="AB63" s="16"/>
-      <c r="AC63" s="29"/>
-      <c r="AD63" s="29"/>
-      <c r="AE63" s="29"/>
-      <c r="AF63" s="29"/>
-      <c r="AG63" s="24"/>
-      <c r="AH63" s="24"/>
-      <c r="AI63" s="24"/>
-      <c r="AJ63" s="24"/>
-      <c r="AK63" s="24"/>
-      <c r="AL63" s="24"/>
-      <c r="AM63" s="24"/>
-      <c r="AN63" s="24"/>
-      <c r="AO63" s="24"/>
-      <c r="AP63" s="24"/>
-      <c r="AQ63" s="24"/>
-      <c r="AR63" s="24"/>
-      <c r="AS63" s="24"/>
-      <c r="AT63" s="24"/>
-      <c r="AU63" s="24"/>
-      <c r="AV63" s="24"/>
-      <c r="AW63" s="24"/>
-      <c r="AX63" s="24"/>
-      <c r="AY63" s="24"/>
-      <c r="AZ63" s="24"/>
-      <c r="BA63" s="24"/>
-      <c r="BB63" s="24"/>
-      <c r="BC63" s="24"/>
-      <c r="BD63" s="24"/>
-      <c r="BE63" s="24"/>
-      <c r="BF63" s="24"/>
-      <c r="BG63" s="24"/>
-      <c r="BH63" s="24"/>
-      <c r="BI63" s="24"/>
-      <c r="BJ63" s="24"/>
-      <c r="BK63" s="24"/>
-      <c r="BL63" s="24"/>
-      <c r="BM63" s="24"/>
-      <c r="BN63" s="24"/>
-      <c r="BO63" s="24"/>
-      <c r="BP63" s="24"/>
-      <c r="BQ63" s="24"/>
-      <c r="BR63" s="26"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="30"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30"/>
+      <c r="AA63" s="30"/>
+      <c r="AB63" s="30"/>
+      <c r="AC63" s="23"/>
+      <c r="AD63" s="23"/>
+      <c r="AE63" s="23"/>
+      <c r="AF63" s="23"/>
+      <c r="AG63" s="19"/>
+      <c r="AH63" s="19"/>
+      <c r="AI63" s="19"/>
+      <c r="AJ63" s="19"/>
+      <c r="AK63" s="19"/>
+      <c r="AL63" s="19"/>
+      <c r="AM63" s="19"/>
+      <c r="AN63" s="19"/>
+      <c r="AO63" s="19"/>
+      <c r="AP63" s="19"/>
+      <c r="AQ63" s="19"/>
+      <c r="AR63" s="19"/>
+      <c r="AS63" s="19"/>
+      <c r="AT63" s="19"/>
+      <c r="AU63" s="19"/>
+      <c r="AV63" s="19"/>
+      <c r="AW63" s="19"/>
+      <c r="AX63" s="19"/>
+      <c r="AY63" s="19"/>
+      <c r="AZ63" s="19"/>
+      <c r="BA63" s="19"/>
+      <c r="BB63" s="19"/>
+      <c r="BC63" s="19"/>
+      <c r="BD63" s="19"/>
+      <c r="BE63" s="19"/>
+      <c r="BF63" s="19"/>
+      <c r="BG63" s="19"/>
+      <c r="BH63" s="19"/>
+      <c r="BI63" s="19"/>
+      <c r="BJ63" s="19"/>
+      <c r="BK63" s="19"/>
+      <c r="BL63" s="19"/>
+      <c r="BM63" s="19"/>
+      <c r="BN63" s="19"/>
+      <c r="BO63" s="19"/>
+      <c r="BP63" s="19"/>
+      <c r="BQ63" s="19"/>
+      <c r="BR63" s="21"/>
     </row>
     <row r="64" spans="2:70" x14ac:dyDescent="0.25">
       <c r="C64" s="6" t="s">
@@ -3892,69 +3892,69 @@
       <c r="H64" s="8">
         <v>3</v>
       </c>
-      <c r="J64" s="18" t="s">
+      <c r="J64" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="24"/>
-      <c r="U64" s="24"/>
-      <c r="V64" s="20"/>
-      <c r="W64" s="20"/>
-      <c r="X64" s="20"/>
-      <c r="Y64" s="20"/>
-      <c r="Z64" s="20"/>
-      <c r="AA64" s="20"/>
-      <c r="AB64" s="20"/>
-      <c r="AC64" s="20"/>
-      <c r="AD64" s="20"/>
-      <c r="AE64" s="20"/>
-      <c r="AF64" s="20"/>
-      <c r="AG64" s="19"/>
-      <c r="AH64" s="19"/>
-      <c r="AI64" s="19"/>
-      <c r="AJ64" s="19"/>
-      <c r="AK64" s="19"/>
-      <c r="AL64" s="19"/>
-      <c r="AM64" s="19"/>
-      <c r="AN64" s="19"/>
-      <c r="AO64" s="19"/>
-      <c r="AP64" s="19"/>
-      <c r="AQ64" s="20"/>
-      <c r="AR64" s="20"/>
-      <c r="AS64" s="20"/>
-      <c r="AT64" s="20"/>
-      <c r="AU64" s="20"/>
-      <c r="AV64" s="20"/>
-      <c r="AW64" s="20"/>
-      <c r="AX64" s="20"/>
-      <c r="AY64" s="20"/>
-      <c r="AZ64" s="20"/>
-      <c r="BA64" s="19"/>
-      <c r="BB64" s="19"/>
-      <c r="BC64" s="19"/>
-      <c r="BD64" s="19"/>
-      <c r="BE64" s="19"/>
-      <c r="BF64" s="19"/>
-      <c r="BG64" s="19"/>
-      <c r="BH64" s="19"/>
-      <c r="BI64" s="19"/>
-      <c r="BJ64" s="19"/>
-      <c r="BK64" s="19"/>
-      <c r="BL64" s="19"/>
-      <c r="BM64" s="19"/>
-      <c r="BN64" s="19"/>
-      <c r="BO64" s="19"/>
-      <c r="BP64" s="19"/>
-      <c r="BQ64" s="19"/>
-      <c r="BR64" s="30"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="19"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="32"/>
+      <c r="X64" s="32"/>
+      <c r="Y64" s="32"/>
+      <c r="Z64" s="32"/>
+      <c r="AA64" s="32"/>
+      <c r="AB64" s="32"/>
+      <c r="AC64" s="32"/>
+      <c r="AD64" s="32"/>
+      <c r="AE64" s="32"/>
+      <c r="AF64" s="32"/>
+      <c r="AG64" s="27"/>
+      <c r="AH64" s="27"/>
+      <c r="AI64" s="27"/>
+      <c r="AJ64" s="27"/>
+      <c r="AK64" s="27"/>
+      <c r="AL64" s="27"/>
+      <c r="AM64" s="27"/>
+      <c r="AN64" s="27"/>
+      <c r="AO64" s="27"/>
+      <c r="AP64" s="27"/>
+      <c r="AQ64" s="32"/>
+      <c r="AR64" s="32"/>
+      <c r="AS64" s="32"/>
+      <c r="AT64" s="32"/>
+      <c r="AU64" s="32"/>
+      <c r="AV64" s="32"/>
+      <c r="AW64" s="32"/>
+      <c r="AX64" s="32"/>
+      <c r="AY64" s="32"/>
+      <c r="AZ64" s="32"/>
+      <c r="BA64" s="27"/>
+      <c r="BB64" s="27"/>
+      <c r="BC64" s="27"/>
+      <c r="BD64" s="27"/>
+      <c r="BE64" s="27"/>
+      <c r="BF64" s="27"/>
+      <c r="BG64" s="27"/>
+      <c r="BH64" s="27"/>
+      <c r="BI64" s="27"/>
+      <c r="BJ64" s="27"/>
+      <c r="BK64" s="27"/>
+      <c r="BL64" s="27"/>
+      <c r="BM64" s="27"/>
+      <c r="BN64" s="27"/>
+      <c r="BO64" s="27"/>
+      <c r="BP64" s="27"/>
+      <c r="BQ64" s="27"/>
+      <c r="BR64" s="31"/>
     </row>
     <row r="65" spans="3:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="6" t="s">
@@ -3975,69 +3975,69 @@
       <c r="H65" s="8">
         <v>11</v>
       </c>
-      <c r="J65" s="21" t="s">
+      <c r="J65" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="25"/>
-      <c r="R65" s="25"/>
-      <c r="S65" s="25"/>
-      <c r="T65" s="25"/>
-      <c r="U65" s="25"/>
-      <c r="V65" s="25"/>
-      <c r="W65" s="25"/>
-      <c r="X65" s="25"/>
-      <c r="Y65" s="25"/>
-      <c r="Z65" s="25"/>
-      <c r="AA65" s="25"/>
-      <c r="AB65" s="25"/>
-      <c r="AC65" s="25"/>
-      <c r="AD65" s="25"/>
-      <c r="AE65" s="22"/>
-      <c r="AF65" s="22"/>
-      <c r="AG65" s="22"/>
-      <c r="AH65" s="22"/>
-      <c r="AI65" s="22"/>
-      <c r="AJ65" s="22"/>
-      <c r="AK65" s="22"/>
-      <c r="AL65" s="22"/>
-      <c r="AM65" s="22"/>
-      <c r="AN65" s="22"/>
-      <c r="AO65" s="22"/>
-      <c r="AP65" s="22"/>
-      <c r="AQ65" s="23"/>
-      <c r="AR65" s="23"/>
-      <c r="AS65" s="23"/>
-      <c r="AT65" s="23"/>
-      <c r="AU65" s="23"/>
-      <c r="AV65" s="23"/>
-      <c r="AW65" s="23"/>
-      <c r="AX65" s="23"/>
-      <c r="AY65" s="23"/>
-      <c r="AZ65" s="23"/>
-      <c r="BA65" s="25"/>
-      <c r="BB65" s="25"/>
-      <c r="BC65" s="25"/>
-      <c r="BD65" s="25"/>
-      <c r="BE65" s="25"/>
-      <c r="BF65" s="25"/>
-      <c r="BG65" s="25"/>
-      <c r="BH65" s="25"/>
-      <c r="BI65" s="25"/>
-      <c r="BJ65" s="25"/>
-      <c r="BK65" s="25"/>
-      <c r="BL65" s="25"/>
-      <c r="BM65" s="25"/>
-      <c r="BN65" s="25"/>
-      <c r="BO65" s="25"/>
-      <c r="BP65" s="25"/>
-      <c r="BQ65" s="25"/>
-      <c r="BR65" s="28"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="20"/>
+      <c r="AA65" s="20"/>
+      <c r="AB65" s="20"/>
+      <c r="AC65" s="20"/>
+      <c r="AD65" s="20"/>
+      <c r="AE65" s="33"/>
+      <c r="AF65" s="33"/>
+      <c r="AG65" s="33"/>
+      <c r="AH65" s="33"/>
+      <c r="AI65" s="33"/>
+      <c r="AJ65" s="33"/>
+      <c r="AK65" s="33"/>
+      <c r="AL65" s="33"/>
+      <c r="AM65" s="33"/>
+      <c r="AN65" s="33"/>
+      <c r="AO65" s="33"/>
+      <c r="AP65" s="33"/>
+      <c r="AQ65" s="28"/>
+      <c r="AR65" s="28"/>
+      <c r="AS65" s="28"/>
+      <c r="AT65" s="28"/>
+      <c r="AU65" s="28"/>
+      <c r="AV65" s="28"/>
+      <c r="AW65" s="28"/>
+      <c r="AX65" s="28"/>
+      <c r="AY65" s="28"/>
+      <c r="AZ65" s="28"/>
+      <c r="BA65" s="20"/>
+      <c r="BB65" s="20"/>
+      <c r="BC65" s="20"/>
+      <c r="BD65" s="20"/>
+      <c r="BE65" s="20"/>
+      <c r="BF65" s="20"/>
+      <c r="BG65" s="20"/>
+      <c r="BH65" s="20"/>
+      <c r="BI65" s="20"/>
+      <c r="BJ65" s="20"/>
+      <c r="BK65" s="20"/>
+      <c r="BL65" s="20"/>
+      <c r="BM65" s="20"/>
+      <c r="BN65" s="20"/>
+      <c r="BO65" s="20"/>
+      <c r="BP65" s="20"/>
+      <c r="BQ65" s="20"/>
+      <c r="BR65" s="22"/>
     </row>
     <row r="66" spans="3:70" x14ac:dyDescent="0.25">
       <c r="C66" s="6"/>
